--- a/_resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
@@ -68,6 +68,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lori:</t>
@@ -76,6 +77,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,6 +122,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -129,6 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">  
@@ -307,7 +311,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ResetData=std::vector&lt;{}&gt;</t>
+    <t>ResetData=1,std::vector&lt;{}&gt;,重置数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -326,23 +330,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -934,7 +942,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,7 +951,7 @@
     <col min="2" max="2" width="18.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="7" customWidth="1"/>
     <col min="8" max="9" width="19.375" style="7" bestFit="1" customWidth="1"/>

--- a/_resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
@@ -942,7 +942,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
